--- a/Assets/Resources/LuckyDefense/Table/LuckyDefense.xlsx
+++ b/Assets/Resources/LuckyDefense/Table/LuckyDefense.xlsx
@@ -7,15 +7,16 @@
   <sheets>
     <sheet name="monster" sheetId="1" r:id="rId4"/>
     <sheet name="missile" sheetId="2" r:id="rId5"/>
-    <sheet name="stage" sheetId="3" r:id="rId6"/>
-    <sheet name="tower" sheetId="4" r:id="rId7"/>
-    <sheet name="wave" sheetId="5" r:id="rId8"/>
+    <sheet name="tower_level" sheetId="3" r:id="rId6"/>
+    <sheet name="stage" sheetId="4" r:id="rId7"/>
+    <sheet name="tower" sheetId="5" r:id="rId8"/>
+    <sheet name="wave" sheetId="6" r:id="rId9"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>sn</t>
   </si>
@@ -63,6 +64,30 @@
   </si>
   <si>
     <t>LuckyDefense/Sprite/Missile/missile_3</t>
+  </si>
+  <si>
+    <t>group_sn</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>stat_type</t>
+  </si>
+  <si>
+    <t>stat_modifier_type</t>
+  </si>
+  <si>
+    <t>stat_modifier_value</t>
+  </si>
+  <si>
+    <t>ATTACK</t>
+  </si>
+  <si>
+    <t>ADDITIVE</t>
+  </si>
+  <si>
+    <t>ATTACK_SPEED</t>
   </si>
   <si>
     <t>wave_group</t>
@@ -309,7 +334,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -362,6 +387,9 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -1685,86 +1713,365 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
+      <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13.45" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="5" width="12.6719" style="18" customWidth="1"/>
-    <col min="6" max="16384" width="12.6719" style="18" customWidth="1"/>
+    <col min="1" max="6" width="16.3516" style="18" customWidth="1"/>
+    <col min="7" max="16384" width="16.3516" style="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.65" customHeight="1">
-      <c r="A1" t="s" s="15">
+    <row r="1" ht="13.2" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="15">
+      <c r="B1" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-    </row>
-    <row r="2" ht="13.65" customHeight="1">
-      <c r="A2" s="16">
-        <v>1</v>
-      </c>
-      <c r="B2" s="16">
-        <v>1</v>
-      </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-    </row>
-    <row r="3" ht="13.65" customHeight="1">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-    </row>
-    <row r="4" ht="13.65" customHeight="1">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-    </row>
-    <row r="5" ht="13.65" customHeight="1">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-    </row>
-    <row r="6" ht="13.65" customHeight="1">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-    </row>
-    <row r="7" ht="13.65" customHeight="1">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-    </row>
-    <row r="8" ht="13.65" customHeight="1">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-    </row>
-    <row r="9" ht="13.65" customHeight="1">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
+      <c r="C1" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" ht="13.2" customHeight="1">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s" s="6">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s" s="6">
+        <v>22</v>
+      </c>
+      <c r="F2" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" ht="13" customHeight="1">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s" s="10">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s" s="10">
+        <v>22</v>
+      </c>
+      <c r="F3" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" ht="13" customHeight="1">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s" s="10">
+        <v>22</v>
+      </c>
+      <c r="F4" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" ht="13" customHeight="1">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s" s="10">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s" s="10">
+        <v>22</v>
+      </c>
+      <c r="F5" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" ht="13" customHeight="1">
+      <c r="A6" s="11"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+    </row>
+    <row r="7" ht="13" customHeight="1">
+      <c r="A7" s="11"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+    </row>
+    <row r="8" ht="13" customHeight="1">
+      <c r="A8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+    </row>
+    <row r="9" ht="13" customHeight="1">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+    </row>
+    <row r="10" ht="13" customHeight="1">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+    </row>
+    <row r="11" ht="13" customHeight="1">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+    </row>
+    <row r="12" ht="13" customHeight="1">
+      <c r="A12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+    </row>
+    <row r="13" ht="13" customHeight="1">
+      <c r="A13" s="11"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+    </row>
+    <row r="14" ht="13" customHeight="1">
+      <c r="A14" s="11"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+    </row>
+    <row r="15" ht="13" customHeight="1">
+      <c r="A15" s="11"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+    </row>
+    <row r="16" ht="13" customHeight="1">
+      <c r="A16" s="11"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+    </row>
+    <row r="17" ht="13" customHeight="1">
+      <c r="A17" s="11"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+    </row>
+    <row r="18" ht="13" customHeight="1">
+      <c r="A18" s="11"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+    </row>
+    <row r="19" ht="13" customHeight="1">
+      <c r="A19" s="11"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+    </row>
+    <row r="20" ht="13" customHeight="1">
+      <c r="A20" s="11"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+    </row>
+    <row r="21" ht="13" customHeight="1">
+      <c r="A21" s="11"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+    </row>
+    <row r="22" ht="13" customHeight="1">
+      <c r="A22" s="11"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+    </row>
+    <row r="23" ht="13" customHeight="1">
+      <c r="A23" s="11"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+    </row>
+    <row r="24" ht="13" customHeight="1">
+      <c r="A24" s="11"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+    </row>
+    <row r="25" ht="13" customHeight="1">
+      <c r="A25" s="11"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+    </row>
+    <row r="26" ht="13" customHeight="1">
+      <c r="A26" s="11"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+    </row>
+    <row r="27" ht="13" customHeight="1">
+      <c r="A27" s="11"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+    </row>
+    <row r="28" ht="13" customHeight="1">
+      <c r="A28" s="11"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+    </row>
+    <row r="29" ht="13" customHeight="1">
+      <c r="A29" s="11"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+    </row>
+    <row r="30" ht="13" customHeight="1">
+      <c r="A30" s="11"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+    </row>
+    <row r="31" ht="13" customHeight="1">
+      <c r="A31" s="11"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+    </row>
+    <row r="32" ht="13" customHeight="1">
+      <c r="A32" s="11"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+    </row>
+    <row r="33" ht="13" customHeight="1">
+      <c r="A33" s="11"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+    </row>
+    <row r="34" ht="13" customHeight="1">
+      <c r="A34" s="11"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+    </row>
+    <row r="35" ht="13" customHeight="1">
+      <c r="A35" s="11"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+    </row>
+    <row r="36" ht="13" customHeight="1">
+      <c r="A36" s="11"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
@@ -1780,14 +2087,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="11" width="12.6719" style="19" customWidth="1"/>
-    <col min="12" max="16384" width="12.6719" style="19" customWidth="1"/>
+    <col min="1" max="5" width="12.6719" style="19" customWidth="1"/>
+    <col min="6" max="16384" width="12.6719" style="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.65" customHeight="1">
@@ -1795,35 +2102,11 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="15">
-        <v>17</v>
-      </c>
-      <c r="C1" t="s" s="15">
-        <v>18</v>
-      </c>
-      <c r="D1" t="s" s="15">
-        <v>19</v>
-      </c>
-      <c r="E1" t="s" s="15">
-        <v>20</v>
-      </c>
-      <c r="F1" t="s" s="15">
-        <v>21</v>
-      </c>
-      <c r="G1" t="s" s="15">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s" s="15">
-        <v>22</v>
-      </c>
-      <c r="I1" t="s" s="15">
-        <v>23</v>
-      </c>
-      <c r="J1" t="s" s="15">
         <v>24</v>
       </c>
-      <c r="K1" t="s" s="15">
-        <v>25</v>
-      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" ht="13.65" customHeight="1">
       <c r="A2" s="16">
@@ -1832,745 +2115,58 @@
       <c r="B2" s="16">
         <v>1</v>
       </c>
-      <c r="C2" s="16">
-        <v>50</v>
-      </c>
-      <c r="D2" s="16">
-        <v>1</v>
-      </c>
-      <c r="E2" s="16">
-        <v>3</v>
-      </c>
-      <c r="F2" s="16">
-        <v>100</v>
-      </c>
-      <c r="G2" t="s" s="15">
-        <v>26</v>
-      </c>
-      <c r="H2" s="16">
-        <v>1</v>
-      </c>
-      <c r="I2" s="16">
-        <v>5</v>
-      </c>
-      <c r="J2" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="K2" s="16">
-        <v>0</v>
-      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
     </row>
     <row r="3" ht="13.65" customHeight="1">
-      <c r="A3" s="16">
-        <v>2</v>
-      </c>
-      <c r="B3" s="16">
-        <v>2</v>
-      </c>
-      <c r="C3" s="16">
-        <v>50</v>
-      </c>
-      <c r="D3" s="16">
-        <v>2</v>
-      </c>
-      <c r="E3" s="16">
-        <v>3</v>
-      </c>
-      <c r="F3" s="16">
-        <v>100</v>
-      </c>
-      <c r="G3" t="s" s="15">
-        <v>26</v>
-      </c>
-      <c r="H3" s="16">
-        <v>1</v>
-      </c>
-      <c r="I3" s="16">
-        <v>10</v>
-      </c>
-      <c r="J3" s="16">
-        <v>0.4</v>
-      </c>
-      <c r="K3" s="16">
-        <v>0</v>
-      </c>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
     </row>
     <row r="4" ht="13.65" customHeight="1">
-      <c r="A4" s="16">
-        <v>3</v>
-      </c>
-      <c r="B4" s="16">
-        <v>3</v>
-      </c>
-      <c r="C4" s="16">
-        <v>50</v>
-      </c>
-      <c r="D4" s="16">
-        <v>3</v>
-      </c>
-      <c r="E4" s="16">
-        <v>3</v>
-      </c>
-      <c r="F4" s="16">
-        <v>100</v>
-      </c>
-      <c r="G4" t="s" s="15">
-        <v>26</v>
-      </c>
-      <c r="H4" s="16">
-        <v>1</v>
-      </c>
-      <c r="I4" s="16">
-        <v>15</v>
-      </c>
-      <c r="J4" s="16">
-        <v>0.3</v>
-      </c>
-      <c r="K4" s="16">
-        <v>0</v>
-      </c>
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
     </row>
     <row r="5" ht="13.65" customHeight="1">
-      <c r="A5" s="16">
-        <v>4</v>
-      </c>
-      <c r="B5" s="16">
-        <v>1</v>
-      </c>
-      <c r="C5" s="16">
-        <v>50</v>
-      </c>
-      <c r="D5" s="16">
-        <v>1</v>
-      </c>
-      <c r="E5" s="16">
-        <v>3</v>
-      </c>
-      <c r="F5" s="16">
-        <v>100</v>
-      </c>
-      <c r="G5" t="s" s="15">
-        <v>27</v>
-      </c>
-      <c r="H5" s="16">
-        <v>1</v>
-      </c>
-      <c r="I5" s="16">
-        <v>5</v>
-      </c>
-      <c r="J5" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="K5" s="16">
-        <v>0</v>
-      </c>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
     </row>
     <row r="6" ht="13.65" customHeight="1">
-      <c r="A6" s="16">
-        <v>5</v>
-      </c>
-      <c r="B6" s="16">
-        <v>2</v>
-      </c>
-      <c r="C6" s="16">
-        <v>50</v>
-      </c>
-      <c r="D6" s="16">
-        <v>2</v>
-      </c>
-      <c r="E6" s="16">
-        <v>3</v>
-      </c>
-      <c r="F6" s="16">
-        <v>100</v>
-      </c>
-      <c r="G6" t="s" s="15">
-        <v>27</v>
-      </c>
-      <c r="H6" s="16">
-        <v>1</v>
-      </c>
-      <c r="I6" s="16">
-        <v>10</v>
-      </c>
-      <c r="J6" s="16">
-        <v>0.4</v>
-      </c>
-      <c r="K6" s="16">
-        <v>0</v>
-      </c>
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
     </row>
     <row r="7" ht="13.65" customHeight="1">
-      <c r="A7" s="16">
-        <v>6</v>
-      </c>
-      <c r="B7" s="16">
-        <v>3</v>
-      </c>
-      <c r="C7" s="16">
-        <v>50</v>
-      </c>
-      <c r="D7" s="16">
-        <v>3</v>
-      </c>
-      <c r="E7" s="16">
-        <v>3</v>
-      </c>
-      <c r="F7" s="16">
-        <v>100</v>
-      </c>
-      <c r="G7" t="s" s="15">
-        <v>27</v>
-      </c>
-      <c r="H7" s="16">
-        <v>1</v>
-      </c>
-      <c r="I7" s="16">
-        <v>15</v>
-      </c>
-      <c r="J7" s="16">
-        <v>0.3</v>
-      </c>
-      <c r="K7" s="16">
-        <v>0</v>
-      </c>
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
     </row>
     <row r="8" ht="13.65" customHeight="1">
-      <c r="A8" s="16">
-        <v>7</v>
-      </c>
-      <c r="B8" s="16">
-        <v>1</v>
-      </c>
-      <c r="C8" s="16">
-        <v>50</v>
-      </c>
-      <c r="D8" s="16">
-        <v>1</v>
-      </c>
-      <c r="E8" s="16">
-        <v>3</v>
-      </c>
-      <c r="F8" s="16">
-        <v>100</v>
-      </c>
-      <c r="G8" t="s" s="15">
-        <v>28</v>
-      </c>
-      <c r="H8" s="16">
-        <v>1</v>
-      </c>
-      <c r="I8" s="16">
-        <v>5</v>
-      </c>
-      <c r="J8" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="K8" s="16">
-        <v>0</v>
-      </c>
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
     </row>
     <row r="9" ht="13.65" customHeight="1">
-      <c r="A9" s="16">
-        <v>8</v>
-      </c>
-      <c r="B9" s="16">
-        <v>2</v>
-      </c>
-      <c r="C9" s="16">
-        <v>50</v>
-      </c>
-      <c r="D9" s="16">
-        <v>2</v>
-      </c>
-      <c r="E9" s="16">
-        <v>3</v>
-      </c>
-      <c r="F9" s="16">
-        <v>100</v>
-      </c>
-      <c r="G9" t="s" s="15">
-        <v>28</v>
-      </c>
-      <c r="H9" s="16">
-        <v>1</v>
-      </c>
-      <c r="I9" s="16">
-        <v>10</v>
-      </c>
-      <c r="J9" s="16">
-        <v>0.4</v>
-      </c>
-      <c r="K9" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" ht="13.65" customHeight="1">
-      <c r="A10" s="16">
-        <v>9</v>
-      </c>
-      <c r="B10" s="16">
-        <v>3</v>
-      </c>
-      <c r="C10" s="16">
-        <v>50</v>
-      </c>
-      <c r="D10" s="16">
-        <v>3</v>
-      </c>
-      <c r="E10" s="16">
-        <v>3</v>
-      </c>
-      <c r="F10" s="16">
-        <v>100</v>
-      </c>
-      <c r="G10" t="s" s="15">
-        <v>28</v>
-      </c>
-      <c r="H10" s="16">
-        <v>1</v>
-      </c>
-      <c r="I10" s="16">
-        <v>15</v>
-      </c>
-      <c r="J10" s="16">
-        <v>0.3</v>
-      </c>
-      <c r="K10" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" ht="13.65" customHeight="1">
-      <c r="A11" s="16">
-        <v>10</v>
-      </c>
-      <c r="B11" s="16">
-        <v>1</v>
-      </c>
-      <c r="C11" s="16">
-        <v>50</v>
-      </c>
-      <c r="D11" s="16">
-        <v>1</v>
-      </c>
-      <c r="E11" s="16">
-        <v>3</v>
-      </c>
-      <c r="F11" s="16">
-        <v>100</v>
-      </c>
-      <c r="G11" t="s" s="15">
-        <v>29</v>
-      </c>
-      <c r="H11" s="16">
-        <v>1</v>
-      </c>
-      <c r="I11" s="16">
-        <v>5</v>
-      </c>
-      <c r="J11" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="K11" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" ht="13.65" customHeight="1">
-      <c r="A12" s="16">
-        <v>11</v>
-      </c>
-      <c r="B12" s="16">
-        <v>2</v>
-      </c>
-      <c r="C12" s="16">
-        <v>50</v>
-      </c>
-      <c r="D12" s="16">
-        <v>2</v>
-      </c>
-      <c r="E12" s="16">
-        <v>3</v>
-      </c>
-      <c r="F12" s="16">
-        <v>100</v>
-      </c>
-      <c r="G12" t="s" s="15">
-        <v>29</v>
-      </c>
-      <c r="H12" s="16">
-        <v>1</v>
-      </c>
-      <c r="I12" s="16">
-        <v>10</v>
-      </c>
-      <c r="J12" s="16">
-        <v>0.4</v>
-      </c>
-      <c r="K12" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" ht="13.65" customHeight="1">
-      <c r="A13" s="16">
-        <v>12</v>
-      </c>
-      <c r="B13" s="16">
-        <v>3</v>
-      </c>
-      <c r="C13" s="16">
-        <v>50</v>
-      </c>
-      <c r="D13" s="16">
-        <v>3</v>
-      </c>
-      <c r="E13" s="16">
-        <v>3</v>
-      </c>
-      <c r="F13" s="16">
-        <v>100</v>
-      </c>
-      <c r="G13" t="s" s="15">
-        <v>29</v>
-      </c>
-      <c r="H13" s="16">
-        <v>1</v>
-      </c>
-      <c r="I13" s="16">
-        <v>15</v>
-      </c>
-      <c r="J13" s="16">
-        <v>0.3</v>
-      </c>
-      <c r="K13" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" ht="13.65" customHeight="1">
-      <c r="A14" s="16">
-        <v>13</v>
-      </c>
-      <c r="B14" s="16">
-        <v>1</v>
-      </c>
-      <c r="C14" s="16">
-        <v>50</v>
-      </c>
-      <c r="D14" s="16">
-        <v>1</v>
-      </c>
-      <c r="E14" s="16">
-        <v>3</v>
-      </c>
-      <c r="F14" s="16">
-        <v>100</v>
-      </c>
-      <c r="G14" t="s" s="15">
-        <v>30</v>
-      </c>
-      <c r="H14" s="16">
-        <v>1</v>
-      </c>
-      <c r="I14" s="16">
-        <v>5</v>
-      </c>
-      <c r="J14" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="K14" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" ht="13.65" customHeight="1">
-      <c r="A15" s="16">
-        <v>14</v>
-      </c>
-      <c r="B15" s="16">
-        <v>2</v>
-      </c>
-      <c r="C15" s="16">
-        <v>50</v>
-      </c>
-      <c r="D15" s="16">
-        <v>2</v>
-      </c>
-      <c r="E15" s="16">
-        <v>3</v>
-      </c>
-      <c r="F15" s="16">
-        <v>100</v>
-      </c>
-      <c r="G15" t="s" s="15">
-        <v>30</v>
-      </c>
-      <c r="H15" s="16">
-        <v>1</v>
-      </c>
-      <c r="I15" s="16">
-        <v>10</v>
-      </c>
-      <c r="J15" s="16">
-        <v>0.4</v>
-      </c>
-      <c r="K15" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" ht="13.65" customHeight="1">
-      <c r="A16" s="16">
-        <v>15</v>
-      </c>
-      <c r="B16" s="16">
-        <v>3</v>
-      </c>
-      <c r="C16" s="16">
-        <v>50</v>
-      </c>
-      <c r="D16" s="16">
-        <v>3</v>
-      </c>
-      <c r="E16" s="16">
-        <v>3</v>
-      </c>
-      <c r="F16" s="16">
-        <v>100</v>
-      </c>
-      <c r="G16" t="s" s="15">
-        <v>30</v>
-      </c>
-      <c r="H16" s="16">
-        <v>1</v>
-      </c>
-      <c r="I16" s="16">
-        <v>15</v>
-      </c>
-      <c r="J16" s="16">
-        <v>0.3</v>
-      </c>
-      <c r="K16" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" ht="13.65" customHeight="1">
-      <c r="A17" s="16">
-        <v>16</v>
-      </c>
-      <c r="B17" s="16">
-        <v>1</v>
-      </c>
-      <c r="C17" s="16">
-        <v>50</v>
-      </c>
-      <c r="D17" s="16">
-        <v>1</v>
-      </c>
-      <c r="E17" s="16">
-        <v>3</v>
-      </c>
-      <c r="F17" s="16">
-        <v>100</v>
-      </c>
-      <c r="G17" t="s" s="15">
-        <v>31</v>
-      </c>
-      <c r="H17" s="16">
-        <v>1</v>
-      </c>
-      <c r="I17" s="16">
-        <v>5</v>
-      </c>
-      <c r="J17" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="K17" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" ht="13.65" customHeight="1">
-      <c r="A18" s="16">
-        <v>17</v>
-      </c>
-      <c r="B18" s="16">
-        <v>2</v>
-      </c>
-      <c r="C18" s="16">
-        <v>50</v>
-      </c>
-      <c r="D18" s="16">
-        <v>2</v>
-      </c>
-      <c r="E18" s="16">
-        <v>3</v>
-      </c>
-      <c r="F18" s="16">
-        <v>100</v>
-      </c>
-      <c r="G18" t="s" s="15">
-        <v>30</v>
-      </c>
-      <c r="H18" s="16">
-        <v>1</v>
-      </c>
-      <c r="I18" s="16">
-        <v>10</v>
-      </c>
-      <c r="J18" s="16">
-        <v>0.4</v>
-      </c>
-      <c r="K18" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" ht="13.65" customHeight="1">
-      <c r="A19" s="16">
-        <v>18</v>
-      </c>
-      <c r="B19" s="16">
-        <v>3</v>
-      </c>
-      <c r="C19" s="16">
-        <v>50</v>
-      </c>
-      <c r="D19" s="16">
-        <v>3</v>
-      </c>
-      <c r="E19" s="16">
-        <v>3</v>
-      </c>
-      <c r="F19" s="16">
-        <v>100</v>
-      </c>
-      <c r="G19" t="s" s="15">
-        <v>30</v>
-      </c>
-      <c r="H19" s="16">
-        <v>1</v>
-      </c>
-      <c r="I19" s="16">
-        <v>15</v>
-      </c>
-      <c r="J19" s="16">
-        <v>0.3</v>
-      </c>
-      <c r="K19" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" ht="13.65" customHeight="1">
-      <c r="A20" s="17"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-    </row>
-    <row r="21" ht="13.65" customHeight="1">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-    </row>
-    <row r="22" ht="13.65" customHeight="1">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-    </row>
-    <row r="23" ht="13.65" customHeight="1">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-    </row>
-    <row r="24" ht="13.65" customHeight="1">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-    </row>
-    <row r="25" ht="13.65" customHeight="1">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-    </row>
-    <row r="26" ht="13.65" customHeight="1">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-    </row>
-    <row r="27" ht="13.65" customHeight="1">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-    </row>
-    <row r="28" ht="13.65" customHeight="1">
-      <c r="A28" s="17"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
@@ -2586,14 +2182,820 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A1:K28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="11" width="12.6719" style="20" customWidth="1"/>
+    <col min="12" max="16384" width="12.6719" style="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="13.65" customHeight="1">
+      <c r="A1" t="s" s="15">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="15">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s" s="15">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s" s="15">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="15">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s" s="15">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s" s="15">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s" s="15">
+        <v>30</v>
+      </c>
+      <c r="I1" t="s" s="15">
+        <v>31</v>
+      </c>
+      <c r="J1" t="s" s="15">
+        <v>32</v>
+      </c>
+      <c r="K1" t="s" s="15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" ht="13.65" customHeight="1">
+      <c r="A2" s="16">
+        <v>1</v>
+      </c>
+      <c r="B2" s="16">
+        <v>1</v>
+      </c>
+      <c r="C2" s="16">
+        <v>50</v>
+      </c>
+      <c r="D2" s="16">
+        <v>1</v>
+      </c>
+      <c r="E2" s="16">
+        <v>3</v>
+      </c>
+      <c r="F2" s="16">
+        <v>100</v>
+      </c>
+      <c r="G2" t="s" s="15">
+        <v>34</v>
+      </c>
+      <c r="H2" s="16">
+        <v>1</v>
+      </c>
+      <c r="I2" s="16">
+        <v>5</v>
+      </c>
+      <c r="J2" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K2" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" ht="13.65" customHeight="1">
+      <c r="A3" s="16">
+        <v>2</v>
+      </c>
+      <c r="B3" s="16">
+        <v>2</v>
+      </c>
+      <c r="C3" s="16">
+        <v>50</v>
+      </c>
+      <c r="D3" s="16">
+        <v>2</v>
+      </c>
+      <c r="E3" s="16">
+        <v>3</v>
+      </c>
+      <c r="F3" s="16">
+        <v>100</v>
+      </c>
+      <c r="G3" t="s" s="15">
+        <v>34</v>
+      </c>
+      <c r="H3" s="16">
+        <v>1</v>
+      </c>
+      <c r="I3" s="16">
+        <v>10</v>
+      </c>
+      <c r="J3" s="16">
+        <v>0.4</v>
+      </c>
+      <c r="K3" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" ht="13.65" customHeight="1">
+      <c r="A4" s="16">
+        <v>3</v>
+      </c>
+      <c r="B4" s="16">
+        <v>3</v>
+      </c>
+      <c r="C4" s="16">
+        <v>50</v>
+      </c>
+      <c r="D4" s="16">
+        <v>3</v>
+      </c>
+      <c r="E4" s="16">
+        <v>3</v>
+      </c>
+      <c r="F4" s="16">
+        <v>100</v>
+      </c>
+      <c r="G4" t="s" s="15">
+        <v>34</v>
+      </c>
+      <c r="H4" s="16">
+        <v>1</v>
+      </c>
+      <c r="I4" s="16">
+        <v>15</v>
+      </c>
+      <c r="J4" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="K4" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" ht="13.65" customHeight="1">
+      <c r="A5" s="16">
+        <v>4</v>
+      </c>
+      <c r="B5" s="16">
+        <v>1</v>
+      </c>
+      <c r="C5" s="16">
+        <v>50</v>
+      </c>
+      <c r="D5" s="16">
+        <v>1</v>
+      </c>
+      <c r="E5" s="16">
+        <v>3</v>
+      </c>
+      <c r="F5" s="16">
+        <v>100</v>
+      </c>
+      <c r="G5" t="s" s="15">
+        <v>35</v>
+      </c>
+      <c r="H5" s="16">
+        <v>1</v>
+      </c>
+      <c r="I5" s="16">
+        <v>5</v>
+      </c>
+      <c r="J5" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K5" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" ht="13.65" customHeight="1">
+      <c r="A6" s="16">
+        <v>5</v>
+      </c>
+      <c r="B6" s="16">
+        <v>2</v>
+      </c>
+      <c r="C6" s="16">
+        <v>50</v>
+      </c>
+      <c r="D6" s="16">
+        <v>2</v>
+      </c>
+      <c r="E6" s="16">
+        <v>3</v>
+      </c>
+      <c r="F6" s="16">
+        <v>100</v>
+      </c>
+      <c r="G6" t="s" s="15">
+        <v>35</v>
+      </c>
+      <c r="H6" s="16">
+        <v>1</v>
+      </c>
+      <c r="I6" s="16">
+        <v>10</v>
+      </c>
+      <c r="J6" s="16">
+        <v>0.4</v>
+      </c>
+      <c r="K6" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" ht="13.65" customHeight="1">
+      <c r="A7" s="16">
+        <v>6</v>
+      </c>
+      <c r="B7" s="16">
+        <v>3</v>
+      </c>
+      <c r="C7" s="16">
+        <v>50</v>
+      </c>
+      <c r="D7" s="16">
+        <v>3</v>
+      </c>
+      <c r="E7" s="16">
+        <v>3</v>
+      </c>
+      <c r="F7" s="16">
+        <v>100</v>
+      </c>
+      <c r="G7" t="s" s="15">
+        <v>35</v>
+      </c>
+      <c r="H7" s="16">
+        <v>1</v>
+      </c>
+      <c r="I7" s="16">
+        <v>15</v>
+      </c>
+      <c r="J7" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="K7" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" ht="13.65" customHeight="1">
+      <c r="A8" s="16">
+        <v>7</v>
+      </c>
+      <c r="B8" s="16">
+        <v>1</v>
+      </c>
+      <c r="C8" s="16">
+        <v>50</v>
+      </c>
+      <c r="D8" s="16">
+        <v>1</v>
+      </c>
+      <c r="E8" s="16">
+        <v>3</v>
+      </c>
+      <c r="F8" s="16">
+        <v>100</v>
+      </c>
+      <c r="G8" t="s" s="15">
+        <v>36</v>
+      </c>
+      <c r="H8" s="16">
+        <v>1</v>
+      </c>
+      <c r="I8" s="16">
+        <v>5</v>
+      </c>
+      <c r="J8" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K8" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" ht="13.65" customHeight="1">
+      <c r="A9" s="16">
+        <v>8</v>
+      </c>
+      <c r="B9" s="16">
+        <v>2</v>
+      </c>
+      <c r="C9" s="16">
+        <v>50</v>
+      </c>
+      <c r="D9" s="16">
+        <v>2</v>
+      </c>
+      <c r="E9" s="16">
+        <v>3</v>
+      </c>
+      <c r="F9" s="16">
+        <v>100</v>
+      </c>
+      <c r="G9" t="s" s="15">
+        <v>36</v>
+      </c>
+      <c r="H9" s="16">
+        <v>1</v>
+      </c>
+      <c r="I9" s="16">
+        <v>10</v>
+      </c>
+      <c r="J9" s="16">
+        <v>0.4</v>
+      </c>
+      <c r="K9" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" ht="13.65" customHeight="1">
+      <c r="A10" s="16">
+        <v>9</v>
+      </c>
+      <c r="B10" s="16">
+        <v>3</v>
+      </c>
+      <c r="C10" s="16">
+        <v>50</v>
+      </c>
+      <c r="D10" s="16">
+        <v>3</v>
+      </c>
+      <c r="E10" s="16">
+        <v>3</v>
+      </c>
+      <c r="F10" s="16">
+        <v>100</v>
+      </c>
+      <c r="G10" t="s" s="15">
+        <v>36</v>
+      </c>
+      <c r="H10" s="16">
+        <v>1</v>
+      </c>
+      <c r="I10" s="16">
+        <v>15</v>
+      </c>
+      <c r="J10" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="K10" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" ht="13.65" customHeight="1">
+      <c r="A11" s="16">
+        <v>10</v>
+      </c>
+      <c r="B11" s="16">
+        <v>1</v>
+      </c>
+      <c r="C11" s="16">
+        <v>50</v>
+      </c>
+      <c r="D11" s="16">
+        <v>1</v>
+      </c>
+      <c r="E11" s="16">
+        <v>3</v>
+      </c>
+      <c r="F11" s="16">
+        <v>100</v>
+      </c>
+      <c r="G11" t="s" s="15">
+        <v>37</v>
+      </c>
+      <c r="H11" s="16">
+        <v>1</v>
+      </c>
+      <c r="I11" s="16">
+        <v>5</v>
+      </c>
+      <c r="J11" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K11" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" ht="13.65" customHeight="1">
+      <c r="A12" s="16">
+        <v>11</v>
+      </c>
+      <c r="B12" s="16">
+        <v>2</v>
+      </c>
+      <c r="C12" s="16">
+        <v>50</v>
+      </c>
+      <c r="D12" s="16">
+        <v>2</v>
+      </c>
+      <c r="E12" s="16">
+        <v>3</v>
+      </c>
+      <c r="F12" s="16">
+        <v>100</v>
+      </c>
+      <c r="G12" t="s" s="15">
+        <v>37</v>
+      </c>
+      <c r="H12" s="16">
+        <v>1</v>
+      </c>
+      <c r="I12" s="16">
+        <v>10</v>
+      </c>
+      <c r="J12" s="16">
+        <v>0.4</v>
+      </c>
+      <c r="K12" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" ht="13.65" customHeight="1">
+      <c r="A13" s="16">
+        <v>12</v>
+      </c>
+      <c r="B13" s="16">
+        <v>3</v>
+      </c>
+      <c r="C13" s="16">
+        <v>50</v>
+      </c>
+      <c r="D13" s="16">
+        <v>3</v>
+      </c>
+      <c r="E13" s="16">
+        <v>3</v>
+      </c>
+      <c r="F13" s="16">
+        <v>100</v>
+      </c>
+      <c r="G13" t="s" s="15">
+        <v>37</v>
+      </c>
+      <c r="H13" s="16">
+        <v>1</v>
+      </c>
+      <c r="I13" s="16">
+        <v>15</v>
+      </c>
+      <c r="J13" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="K13" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" ht="13.65" customHeight="1">
+      <c r="A14" s="16">
+        <v>13</v>
+      </c>
+      <c r="B14" s="16">
+        <v>1</v>
+      </c>
+      <c r="C14" s="16">
+        <v>50</v>
+      </c>
+      <c r="D14" s="16">
+        <v>1</v>
+      </c>
+      <c r="E14" s="16">
+        <v>3</v>
+      </c>
+      <c r="F14" s="16">
+        <v>100</v>
+      </c>
+      <c r="G14" t="s" s="15">
+        <v>38</v>
+      </c>
+      <c r="H14" s="16">
+        <v>1</v>
+      </c>
+      <c r="I14" s="16">
+        <v>5</v>
+      </c>
+      <c r="J14" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K14" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" ht="13.65" customHeight="1">
+      <c r="A15" s="16">
+        <v>14</v>
+      </c>
+      <c r="B15" s="16">
+        <v>2</v>
+      </c>
+      <c r="C15" s="16">
+        <v>50</v>
+      </c>
+      <c r="D15" s="16">
+        <v>2</v>
+      </c>
+      <c r="E15" s="16">
+        <v>3</v>
+      </c>
+      <c r="F15" s="16">
+        <v>100</v>
+      </c>
+      <c r="G15" t="s" s="15">
+        <v>38</v>
+      </c>
+      <c r="H15" s="16">
+        <v>1</v>
+      </c>
+      <c r="I15" s="16">
+        <v>10</v>
+      </c>
+      <c r="J15" s="16">
+        <v>0.4</v>
+      </c>
+      <c r="K15" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" ht="13.65" customHeight="1">
+      <c r="A16" s="16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="16">
+        <v>3</v>
+      </c>
+      <c r="C16" s="16">
+        <v>50</v>
+      </c>
+      <c r="D16" s="16">
+        <v>3</v>
+      </c>
+      <c r="E16" s="16">
+        <v>3</v>
+      </c>
+      <c r="F16" s="16">
+        <v>100</v>
+      </c>
+      <c r="G16" t="s" s="15">
+        <v>38</v>
+      </c>
+      <c r="H16" s="16">
+        <v>1</v>
+      </c>
+      <c r="I16" s="16">
+        <v>15</v>
+      </c>
+      <c r="J16" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="K16" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" ht="13.65" customHeight="1">
+      <c r="A17" s="16">
+        <v>16</v>
+      </c>
+      <c r="B17" s="16">
+        <v>1</v>
+      </c>
+      <c r="C17" s="16">
+        <v>50</v>
+      </c>
+      <c r="D17" s="16">
+        <v>1</v>
+      </c>
+      <c r="E17" s="16">
+        <v>3</v>
+      </c>
+      <c r="F17" s="16">
+        <v>100</v>
+      </c>
+      <c r="G17" t="s" s="15">
+        <v>39</v>
+      </c>
+      <c r="H17" s="16">
+        <v>1</v>
+      </c>
+      <c r="I17" s="16">
+        <v>5</v>
+      </c>
+      <c r="J17" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K17" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" ht="13.65" customHeight="1">
+      <c r="A18" s="16">
+        <v>17</v>
+      </c>
+      <c r="B18" s="16">
+        <v>2</v>
+      </c>
+      <c r="C18" s="16">
+        <v>50</v>
+      </c>
+      <c r="D18" s="16">
+        <v>2</v>
+      </c>
+      <c r="E18" s="16">
+        <v>3</v>
+      </c>
+      <c r="F18" s="16">
+        <v>100</v>
+      </c>
+      <c r="G18" t="s" s="15">
+        <v>38</v>
+      </c>
+      <c r="H18" s="16">
+        <v>1</v>
+      </c>
+      <c r="I18" s="16">
+        <v>10</v>
+      </c>
+      <c r="J18" s="16">
+        <v>0.4</v>
+      </c>
+      <c r="K18" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" ht="13.65" customHeight="1">
+      <c r="A19" s="16">
+        <v>18</v>
+      </c>
+      <c r="B19" s="16">
+        <v>3</v>
+      </c>
+      <c r="C19" s="16">
+        <v>50</v>
+      </c>
+      <c r="D19" s="16">
+        <v>3</v>
+      </c>
+      <c r="E19" s="16">
+        <v>3</v>
+      </c>
+      <c r="F19" s="16">
+        <v>100</v>
+      </c>
+      <c r="G19" t="s" s="15">
+        <v>38</v>
+      </c>
+      <c r="H19" s="16">
+        <v>1</v>
+      </c>
+      <c r="I19" s="16">
+        <v>15</v>
+      </c>
+      <c r="J19" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="K19" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" ht="13.65" customHeight="1">
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+    </row>
+    <row r="21" ht="13.65" customHeight="1">
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+    </row>
+    <row r="22" ht="13.65" customHeight="1">
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+    </row>
+    <row r="23" ht="13.65" customHeight="1">
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+    </row>
+    <row r="24" ht="13.65" customHeight="1">
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+    </row>
+    <row r="25" ht="13.65" customHeight="1">
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+    </row>
+    <row r="26" ht="13.65" customHeight="1">
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+    </row>
+    <row r="27" ht="13.65" customHeight="1">
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+    </row>
+    <row r="28" ht="13.65" customHeight="1">
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+    </row>
+  </sheetData>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="5" width="12.6719" style="20" customWidth="1"/>
-    <col min="6" max="16384" width="12.6719" style="20" customWidth="1"/>
+    <col min="1" max="5" width="12.6719" style="21" customWidth="1"/>
+    <col min="6" max="16384" width="12.6719" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.65" customHeight="1">
@@ -2601,16 +3003,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="15">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s" s="15">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D1" t="s" s="15">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E1" t="s" s="15">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" ht="13.65" customHeight="1">
